--- a/docs/StructureDefinition-DispensacionMedicamentoCl.xlsx
+++ b/docs/StructureDefinition-DispensacionMedicamentoCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.5</t>
+    <t>0.9.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:23:51-03:00</t>
+    <t>2024-01-03T11:13:10-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1071,7 +1071,7 @@
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl)
 </t>
   </si>
   <si>
@@ -1376,7 +1376,7 @@
     <t>MedicationDispense.performer:Dispensador.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
 </t>
   </si>
   <si>
